--- a/docentes/Velasco Sánchez David - Estadisticos 20202.xlsx
+++ b/docentes/Velasco Sánchez David - Estadisticos 20202.xlsx
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>83.78</v>
+        <v>97.3</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1091,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>97.22</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>7.3</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>82.76000000000001</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="H7">
         <v>7</v>
